--- a/biology/Médecine/Michel_Debout/Michel_Debout.xlsx
+++ b/biology/Médecine/Michel_Debout/Michel_Debout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Debout, né le 10 juillet 1945 à Thonon-les-Bains (Haute-Savoie), est un médecin et homme politique français.
 Il est professeur de médecine légale et de droit de la santé et chef du service de médecine légale au C.H.U. de Saint-Étienne (1980 à 2010). Expert judiciaire près de la cour d'appel de Lyon. Consultant sur les questions de risques psychosociaux et violences au travail (missions au sein des entreprises et administrations).
@@ -513,7 +525,9 @@
           <t>Cursus médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Debout effectua ses études de médecine à l’Université de Lyon où il obtint sa thèse en 1970. Il est également diplômé d’études et de recherche en psychologie médicale et docteur en droit médical et économie de la santé.
 Michel Debout devient professeur de médecine légale et de droit de la santé en 1984 au C.H.U de Saint-Étienne. Il assure de 1980 à 2010 la direction du service de médecine légale de cette institution. Il y avait fondé en 1979 le service d’urgence psychiatrique, unité très innovante en France dont il fut responsable jusqu'en 1984.
@@ -522,7 +536,7 @@
 Dès 1970, il est l’un des pionniers dans l’utilisation des nouveaux outils de communication en médecine et utilise le magnétoscope pour la présentation de sa thèse médicale. 
 Jeune médecin, il se mobilise pour la libéralisation de l’Interruption Volontaire de Grossesse et fut l’un des acteurs nationaux pour l’obtention de ce droit des femmes.
 Tout au long de son parcours de médecin, le Professeur Michel Debout privilégie la qualité de la relation médecin-patient et « révolutionne » ainsi nombre de pratiques médicales : Dès le début des années 1980, il bouleverse l’exercice de la Médecine Légale et instaure une approche humaine vis-à-vis des familles dans une spécialité auparavant murée dans « le secret et le silence de l’instruction ».
-Son activité médicale le guide vers des sujets de santé sociétaux, tels que le suicide[1],[2], le harcèlement[3] et les violences au travail. Ces sujets deviennent les grands axes de sa vie professionnelle et personnelle dans lesquels il s’investit tant dans l’environnement hospitalier que dans la vie civile en intégrant le Conseil Économique et Social en 1991 ou en créant en 1999 l’Union Nationale pour la Prévention du Suicide.
+Son activité médicale le guide vers des sujets de santé sociétaux, tels que le suicide le harcèlement et les violences au travail. Ces sujets deviennent les grands axes de sa vie professionnelle et personnelle dans lesquels il s’investit tant dans l’environnement hospitalier que dans la vie civile en intégrant le Conseil Économique et Social en 1991 ou en créant en 1999 l’Union Nationale pour la Prévention du Suicide.
 Le Professeur Debout coanime avec Jean-Claude Delgènes (Technologia)  l’« Appel des 44 » pour la création d’un observatoire des suicides.
 </t>
         </is>
@@ -552,7 +566,9 @@
           <t>Engagement politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Debout adhère au Parti Socialiste en 1973 et est, à l’âge de 27 ans, candidat aux élections législatives dans la circonscription de Thonon-les-Bains (Haute-Savoie). Il se présente par la suite à de nombreuses élections tant locales que législatives en Haute-Savoie, puis dans la Loire.
 Milchel Debout fut élu en 1986 au conseil régional de Rhône-Alpes et réélu en 1992.
@@ -594,8 +610,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Engagements associatifs
-Jeune étudiant en médecine, Michel Debout s’engage très vite dans la vie associative. Il préside environ un an l’AGEL (Association Générale des Étudiants de Lyon). À ce titre il fut administrateur de la MNEF et du CROUS.
+          <t>Engagements associatifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeune étudiant en médecine, Michel Debout s’engage très vite dans la vie associative. Il préside environ un an l’AGEL (Association Générale des Étudiants de Lyon). À ce titre il fut administrateur de la MNEF et du CROUS.
 Il s’impliqua, en tant que jeune médecin, dans des dossiers de santé publique tels que l’avortement, la toxicomanie, les violences et marqua durablement son empreinte en étant fondateur de plusieurs associations dès les années 1970 :
 Association Choisir Lyon – MLAC (Mouvement pour la Liberté de l’Avortement et de la Contraception)
 Association Rimbaud, structure stéphanoise d’accompagnement de toxicomanes
@@ -606,8 +627,43 @@
 Président Fondateur de l'UNPS: "Union Nationale de la Prévention du Suicide" (1999 - 2010)
 Président Fondateur de "Bien Être et Société" (2012)
 Au travers de cette association, le Professeur Debout a voulu et a su sensibiliser l’opinion publique à l’importance de la prévention du suicide. Depuis la création de l’UNPS, le professeur Debout n’a eu de cesse, grâce à son expertise reconnue du sujet, d’en « faire bouger les lignes » et de parvenir à transformer ce drame en problème de santé publique à part entière.
-Conseil Économique et Social
-Dès 1991, l’expertise du Professeur Debout dans les domaines liés à la violence sous toutes ses formes le conduisit vers des mandats au sein du Conseil Économique et Social. Il y fut nommé par François Mitterrand membre de la section des Affaires Sociales (1991-1993) puis par Lionel Jospin à la section du Travail (1997-1999). Il en assura la Vice-Présidence entre 1999 et 2004. Il a été nommé en avril 2014 Personnalité Qualifiée dans la section de l'environnement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michel_Debout</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Debout</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vie associative</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Conseil Économique et Social</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dès 1991, l’expertise du Professeur Debout dans les domaines liés à la violence sous toutes ses formes le conduisit vers des mandats au sein du Conseil Économique et Social. Il y fut nommé par François Mitterrand membre de la section des Affaires Sociales (1991-1993) puis par Lionel Jospin à la section du Travail (1997-1999). Il en assura la Vice-Présidence entre 1999 et 2004. Il a été nommé en avril 2014 Personnalité Qualifiée dans la section de l'environnement.
 Dans cette instance, le Professeur Debout fut l’auteur de trois rapports :
 Le suicide (1993)
 Travail, Violences, Environnement (1999)
